--- a/example/qft5ela.xlsx
+++ b/example/qft5ela.xlsx
@@ -5,24 +5,25 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Yingheng\Project\Elastic_MBQC\example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\pitt_research\Elastic_MBQC\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31C3FA3A-66FD-48AF-B559-87C27E5F15F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA493E21-2319-43A3-BFEA-043C29BA603B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31005" yWindow="2460" windowWidth="22800" windowHeight="11385" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2370" yWindow="2550" windowWidth="27810" windowHeight="16635" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="b1" sheetId="2" r:id="rId2"/>
-    <sheet name="b3" sheetId="3" r:id="rId3"/>
-    <sheet name="b2" sheetId="4" r:id="rId4"/>
-    <sheet name="b5" sheetId="5" r:id="rId5"/>
-    <sheet name="c2" sheetId="10" r:id="rId6"/>
-    <sheet name="Sheet6" sheetId="6" r:id="rId7"/>
-    <sheet name="Sheet2" sheetId="9" r:id="rId8"/>
-    <sheet name="Sheet7" sheetId="7" r:id="rId9"/>
-    <sheet name="c3" sheetId="8" r:id="rId10"/>
+    <sheet name="12" sheetId="11" r:id="rId2"/>
+    <sheet name="b1" sheetId="2" r:id="rId3"/>
+    <sheet name="b3" sheetId="3" r:id="rId4"/>
+    <sheet name="b2" sheetId="4" r:id="rId5"/>
+    <sheet name="b5" sheetId="5" r:id="rId6"/>
+    <sheet name="c2" sheetId="10" r:id="rId7"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId8"/>
+    <sheet name="Sheet2" sheetId="9" r:id="rId9"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId10"/>
+    <sheet name="c3" sheetId="8" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913" refMode="R1C1"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2059" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2300" uniqueCount="3">
   <si>
     <t>X</t>
   </si>
@@ -378,12 +379,12 @@
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27:D29"/>
+      <selection activeCell="A21" sqref="A21:M34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G1" t="s">
         <v>0</v>
       </c>
@@ -397,7 +398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F2" t="s">
         <v>0</v>
       </c>
@@ -408,7 +409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F3" s="1" t="s">
         <v>0</v>
       </c>
@@ -422,7 +423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
         <v>0</v>
       </c>
@@ -442,7 +443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D5" s="1" t="s">
         <v>0</v>
       </c>
@@ -462,7 +463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D6" s="1" t="s">
         <v>1</v>
       </c>
@@ -482,7 +483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -514,7 +515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
@@ -540,7 +541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -569,7 +570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -601,7 +602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -623,8 +624,11 @@
       <c r="L11" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N11" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I12" t="s">
         <v>2</v>
       </c>
@@ -640,18 +644,11 @@
       <c r="M12" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="M13" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="M14" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N12" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
@@ -974,6 +971,1425 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CD12116-AF1C-439E-9FC9-5259564119EA}">
+  <dimension ref="A1:K83"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>10</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>10</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>10</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>11</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>18</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I38" s="1"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D39" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I39" s="1"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D40" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B41" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B43" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>11</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>11</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C50" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C51" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C52" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B53" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B54" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B55" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>11</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>11</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C62" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C63" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C64" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B65" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B66" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B67" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>12</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D73" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D74" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C75" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C76" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C77" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B78" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B79" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B80" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{111C0989-DCF0-48FB-B9BF-9685D6A2E6FF}">
   <dimension ref="A1:M81"/>
   <sheetViews>
@@ -2522,6 +3938,816 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{600002AA-9592-4EFB-A94D-185564A0A8CD}">
+  <dimension ref="A1:Q50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="Q49" sqref="Q49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" t="s">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G21" t="s">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J21" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K22" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="1"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="1"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="F24" t="s">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M24" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="1"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O26" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P29" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P30" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P31" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="H41" t="s">
+        <v>0</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K41" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="I42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L42" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="F43" t="s">
+        <v>0</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="G44" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N44" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
+        <v>0</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N45" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="E46" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N46" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P46" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="E47" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N47" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
+        <v>0</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O48" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D49" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N49" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O49" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" t="s">
+        <v>2</v>
+      </c>
+      <c r="C50" t="s">
+        <v>2</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L50" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M50" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N50" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O50" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P50" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q50" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2945D12-E3D2-415F-B3FD-C5DAB7DC5AB0}">
   <dimension ref="A1:D13"/>
   <sheetViews>
@@ -2640,7 +4866,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C827EB2-15F6-48E8-932E-726AC1DFF734}">
   <dimension ref="A1:L63"/>
   <sheetViews>
@@ -3239,7 +5465,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A2496CC-293D-411D-B47D-7E603A1FAD14}">
   <dimension ref="A1:F54"/>
   <sheetViews>
@@ -3848,7 +6074,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52B73FE6-91D5-447F-9ECC-B98BACA1CEB0}">
   <dimension ref="A1:H44"/>
   <sheetViews>
@@ -4446,11 +6672,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C41D20DA-1E95-4F99-86EF-DD5D0699650C}">
   <dimension ref="A1:P56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O9" sqref="O9:P9"/>
     </sheetView>
   </sheetViews>
@@ -5392,7 +7618,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFC1649F-6C37-424A-AD13-C1ED78300CE5}">
   <dimension ref="A1:J90"/>
   <sheetViews>
@@ -6649,7 +8875,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EF44984-8014-4DFD-8BC6-3FD467B85725}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -6659,1423 +8885,4 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CD12116-AF1C-439E-9FC9-5259564119EA}">
-  <dimension ref="A1:K83"/>
-  <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>10</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>10</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C18" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E23" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>10</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F26" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D27" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D28" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B29" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B30" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B31" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>11</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>18</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E38" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I38" s="1"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D39" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I39" s="1"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D40" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B41" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B42" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B43" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>11</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>11</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C50" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C51" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C52" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J52" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B53" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J53" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B54" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J54" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B55" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>11</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>11</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C62" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C63" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C64" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B65" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B66" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B67" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H67" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H68" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G69" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>12</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D73" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D74" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C75" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C76" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H76" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I76" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C77" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H77" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I77" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B78" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H78" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I78" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B79" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H79" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B80" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H80" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G81" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H81" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G82" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>